--- a/target/test-classes/testData/hrm_Data.xlsx
+++ b/target/test-classes/testData/hrm_Data.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="invalidLoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="validLoginTest" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="addEmployeeTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,12 +511,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>